--- a/docs/omh-dr.xlsx
+++ b/docs/omh-dr.xlsx
@@ -1053,7 +1053,7 @@
     <t>The mime type of an attachment. Any valid mime type is allowed.</t>
   </si>
   <si>
-    <t>http://www.rfc-editor.org/bcp/bcp13.txt</t>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes</t>
   </si>
   <si>
     <t>Attachment.contentType</t>

--- a/docs/omh-dr.xlsx
+++ b/docs/omh-dr.xlsx
@@ -287,8 +287,8 @@
     <t>DocumentReference.contained</t>
   </si>
   <si>
-    <t>SubjectOfCare Client Resident
-inline resourcesanonymous resourcescontained resources</t>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
   </si>
   <si>
     <t xml:space="preserve">Patient {[CanonicalType[http://www.fhir.org/guides/mfhir/StructureDefinition/contained-p]]} {[]}
@@ -1609,9 +1609,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.74609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="56.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="27.65234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
@@ -1619,7 +1619,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.7421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1632,22 +1632,22 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="75.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.90625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.48046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="42.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="132.66015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="81.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="125.515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/omh-dr.xlsx
+++ b/docs/omh-dr.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>DocumentReference.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>DocumentReference.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>DocumentReference.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -291,7 +291,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {[CanonicalType[http://www.fhir.org/guides/mfhir/StructureDefinition/contained-p]]} {[]}
+    <t xml:space="preserve">Patient {http://www.fhir.org/guides/mfhir/StructureDefinition/contained-p}
 </t>
   </si>
   <si>
@@ -323,7 +323,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -357,7 +357,7 @@
     <t>DocumentReference.masterIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>DocumentReference.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -501,7 +501,7 @@
     <t>DocumentReference.type.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -539,7 +539,7 @@
     <t>DocumentReference.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -630,7 +630,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -722,7 +722,7 @@
     <t>DocumentReference.created</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -750,7 +750,7 @@
     <t>DocumentReference.indexed</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|Organization|Device|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -800,7 +800,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>DocumentReference.relatesTo</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference]]}
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>
@@ -1010,7 +1010,7 @@
     <t>DocumentReference.content.attachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1044,10 +1044,10 @@
     <t>Processors of the data need to be able to know how to interpret the data.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="application/json"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="text/plain; charset=UTF-8, image/png"/&gt;</t>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>text/plain; charset=UTF-8, image/png</t>
   </si>
   <si>
     <t>The mime type of an attachment. Any valid mime type is allowed.</t>
@@ -1077,7 +1077,7 @@
     <t>Users need to be able to choose between the languages in a set of attachments.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>Attachment.language</t>
@@ -1089,7 +1089,7 @@
     <t>DocumentReference.content.attachment.data</t>
   </si>
   <si>
-    <t xml:space="preserve">base64Binary {[]} {[]}
+    <t xml:space="preserve">base64Binary
 </t>
   </si>
   <si>
@@ -1129,7 +1129,7 @@
     <t>The data needs to be transmitted by reference.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/logo-small.png"/&gt;</t>
+    <t>http://www.acme.com/logo-small.png</t>
   </si>
   <si>
     <t>Attachment.url</t>
@@ -1144,7 +1144,7 @@
     <t>DocumentReference.content.attachment.size</t>
   </si>
   <si>
-    <t xml:space="preserve">unsignedInt {[]} {[]}
+    <t xml:space="preserve">unsignedInt
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Official Corporate Logo"/&gt;</t>
+    <t>Official Corporate Logo</t>
   </si>
   <si>
     <t>Attachment.title</t>
@@ -1274,7 +1274,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -1317,7 +1317,7 @@
     <t>DocumentReference.context.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1438,7 +1438,7 @@
     <t>DocumentReference.context.related.ref</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1504,67 +1504,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1600,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
